--- a/Milestone 1/eMart Case Study.xlsx
+++ b/Milestone 1/eMart Case Study.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JieHan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F8244-9015-4C3C-BE91-15C25E6E60D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{93FD6818-9D12-4EAD-97F1-365D6C71E2B0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" system overview" sheetId="1" r:id="rId1"/>
     <sheet name="Buy" sheetId="2" r:id="rId2"/>
+    <sheet name="Sell" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,19 +36,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,7 +126,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA8B2A7-BDB4-4402-ACF0-2B7131200B8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA8B2A7-BDB4-4402-ACF0-2B7131200B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -202,7 +197,7 @@
         <xdr:cNvPr id="2" name="Smiley Face 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B6C48B-01B1-484D-BF9C-DC568F4911A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B6C48B-01B1-484D-BF9C-DC568F4911A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -262,7 +257,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2282297-006A-4159-9BD4-FE694B8D5435}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2282297-006A-4159-9BD4-FE694B8D5435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +332,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B441F1-352A-4924-9196-DA11FDCB4BD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B441F1-352A-4924-9196-DA11FDCB4BD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,7 +408,7 @@
         <xdr:cNvPr id="6" name="Smiley Face 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B1961B-BE95-4841-83F1-5C06A7922BCE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B1961B-BE95-4841-83F1-5C06A7922BCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,7 +468,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A75F1FB-31BE-4C8F-B0DB-A24D9AFE3304}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A75F1FB-31BE-4C8F-B0DB-A24D9AFE3304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +544,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011163B4-AF96-4FA6-A2F6-6CA263E6FA50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011163B4-AF96-4FA6-A2F6-6CA263E6FA50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,7 +600,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF42C05-2D7C-4DA2-8FDC-A6CF198BEB79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF42C05-2D7C-4DA2-8FDC-A6CF198BEB79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -661,7 +656,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC85CB-4F13-43DD-B906-D65B759FB68E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC85CB-4F13-43DD-B906-D65B759FB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -749,7 +744,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D802D6-A1D8-4A0F-B307-DF98D2BEECCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D802D6-A1D8-4A0F-B307-DF98D2BEECCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,7 +822,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ADD5EB-121D-4BC3-9381-3DD3E92C3CC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ADD5EB-121D-4BC3-9381-3DD3E92C3CC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +900,7 @@
         <xdr:cNvPr id="19" name="Arrow: Right 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA54F504-3FE0-4341-BAB3-BF40ED12EC03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA54F504-3FE0-4341-BAB3-BF40ED12EC03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +969,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B0A2E5-85B9-4619-8C03-4A72BBE13337}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B0A2E5-85B9-4619-8C03-4A72BBE13337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,7 +1025,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA949EC-EFFE-4B01-A27A-CA4C909E7A5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA949EC-EFFE-4B01-A27A-CA4C909E7A5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1090,7 @@
         <xdr:cNvPr id="24" name="Graphic 23" descr="Internet">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC29876-5307-4C8E-9CC6-9F70F2ECBE79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC29876-5307-4C8E-9CC6-9F70F2ECBE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1104,13 +1099,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1148,7 +1143,7 @@
         <xdr:cNvPr id="41" name="Arrow: Right 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C826F3-B8FF-4109-9E41-168054DBC95A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C826F3-B8FF-4109-9E41-168054DBC95A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1212,7 @@
         <xdr:cNvPr id="44" name="Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A75997-2BD5-4A34-8289-335DDAEFDCB1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A75997-2BD5-4A34-8289-335DDAEFDCB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1321,7 @@
         <xdr:cNvPr id="47" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6C8A8-1956-4187-95A7-F51667722A7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6C8A8-1956-4187-95A7-F51667722A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1433,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8153876-7747-4F12-B7C8-6769758708AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8153876-7747-4F12-B7C8-6769758708AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1490,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EF03B3-3D33-4FEF-B46A-9968C9FF2584}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EF03B3-3D33-4FEF-B46A-9968C9FF2584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1546,7 @@
         <xdr:cNvPr id="52" name="Cylinder 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB711B-D3DC-41EA-BAFB-7A6BBBC10B92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB711B-D3DC-41EA-BAFB-7A6BBBC10B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1635,7 @@
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEF0B1-95EB-4529-B829-DE3DDB21FC58}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEF0B1-95EB-4529-B829-DE3DDB21FC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1692,7 @@
         <xdr:cNvPr id="60" name="Rectangle 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AA00F-121F-48F1-AFC1-1B5E1E63040C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AA00F-121F-48F1-AFC1-1B5E1E63040C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1801,7 @@
         <xdr:cNvPr id="65" name="Rectangle 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE97012-6185-4669-85DB-142882170FAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE97012-6185-4669-85DB-142882170FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1953,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF9606-4B63-4062-AFF6-A66D2D1A9A92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF9606-4B63-4062-AFF6-A66D2D1A9A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2026,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6783C065-C60E-4EB1-9898-CDB1D5AE1005}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6783C065-C60E-4EB1-9898-CDB1D5AE1005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2099,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658F0800-3A38-47BB-83BE-F5793677B5BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658F0800-3A38-47BB-83BE-F5793677B5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2172,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A1BB7F-C710-4539-98CE-C7F47CCF5CA8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A1BB7F-C710-4539-98CE-C7F47CCF5CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2245,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565E900F-E3A8-4774-B809-76E6F2211747}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565E900F-E3A8-4774-B809-76E6F2211747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2318,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9186ECAE-9CC2-45F4-9AA1-8BD7AE077AB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9186ECAE-9CC2-45F4-9AA1-8BD7AE077AB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2373,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82316F87-9AF7-4FB6-A88D-96F43EB4892E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82316F87-9AF7-4FB6-A88D-96F43EB4892E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2451,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06974428-F9B7-474C-9C32-A3326B103A4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06974428-F9B7-474C-9C32-A3326B103A4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2524,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCC2A5-8E8B-4C47-969A-894AB6055231}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCC2A5-8E8B-4C47-969A-894AB6055231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2579,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3798D-3B02-40DE-ACB0-30CDD79F7172}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3798D-3B02-40DE-ACB0-30CDD79F7172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2652,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BCA2F2-C3DF-403B-89D8-F656DFDA914D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BCA2F2-C3DF-403B-89D8-F656DFDA914D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2709,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602EEFE-F3CE-4D98-873C-49C3F1CA3D11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602EEFE-F3CE-4D98-873C-49C3F1CA3D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2784,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFFE68A-B97E-47B0-974A-16D347BB49A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFFE68A-B97E-47B0-974A-16D347BB49A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2862,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B46A47-618B-48A5-8AB7-6ADB6FE294D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B46A47-618B-48A5-8AB7-6ADB6FE294D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2917,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D3B61B-AD62-42F7-841B-447534AD3E0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D3B61B-AD62-42F7-841B-447534AD3E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +2992,7 @@
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB857263-C5F9-4723-87FE-4E4269FB5A4A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB857263-C5F9-4723-87FE-4E4269FB5A4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3069,7 @@
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4CF3A6-4902-4D59-AA28-C61A707841F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4CF3A6-4902-4D59-AA28-C61A707841F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3147,7 @@
         <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986ACCEF-79DE-4A51-91C7-55029CFD4AC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986ACCEF-79DE-4A51-91C7-55029CFD4AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3224,7 @@
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F320F6-53BF-402B-BA2F-6FF787F67345}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F320F6-53BF-402B-BA2F-6FF787F67345}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3277,7 @@
         <xdr:cNvPr id="41" name="Rectangle 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9046B090-E050-4EBA-967D-40CEE3F5FEB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9046B090-E050-4EBA-967D-40CEE3F5FEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,7 +3352,7 @@
         <xdr:cNvPr id="43" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF5FD4-68BE-4ED8-A375-BED9F6939AD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF5FD4-68BE-4ED8-A375-BED9F6939AD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3429,7 @@
         <xdr:cNvPr id="45" name="Connector: Elbow 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D13D1A-F1B3-4BE0-923D-26E45F7F1C85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D13D1A-F1B3-4BE0-923D-26E45F7F1C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3492,7 +3487,7 @@
         <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBB9BBD-13BD-4361-815E-0A2CA2E44717}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBB9BBD-13BD-4361-815E-0A2CA2E44717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3542,7 @@
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5ED76-3188-4741-9581-850BDDC04102}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5ED76-3188-4741-9581-850BDDC04102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,7 +3617,7 @@
         <xdr:cNvPr id="50" name="Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63BEB37-2F36-4B3D-98A4-17D5B689D28C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63BEB37-2F36-4B3D-98A4-17D5B689D28C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3697,7 +3692,7 @@
         <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4282FA-FA5D-403A-846C-3BD9CAE88766}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4282FA-FA5D-403A-846C-3BD9CAE88766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3752,7 +3747,7 @@
         <xdr:cNvPr id="54" name="Rectangle 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F94A28B-6FAD-4FDE-AEC0-5145FEBA2F87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F94A28B-6FAD-4FDE-AEC0-5145FEBA2F87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3827,7 +3822,7 @@
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CCAFA0-41FD-4A12-BE30-34EC84B03DC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CCAFA0-41FD-4A12-BE30-34EC84B03DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3882,7 +3877,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428FDBF5-38F3-47C5-AAFA-B7BD46273F8B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428FDBF5-38F3-47C5-AAFA-B7BD46273F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,7 +3947,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F6BA3-7775-4D67-AFBD-844AFCCC57E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F6BA3-7775-4D67-AFBD-844AFCCC57E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +4020,7 @@
         <xdr:cNvPr id="7" name="Connector: Elbow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D872E4-785E-4247-B510-A2664EAE5B7B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D872E4-785E-4247-B510-A2664EAE5B7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,7 +4104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4161,7 +4156,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4355,21 +4350,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48E485D-B004-464D-B886-7A526B575EF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4378,20 +4373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A4FC75-BD76-4633-B747-068BF55D067C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4402,4 +4397,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Milestone 1/eMart Case Study.xlsx
+++ b/Milestone 1/eMart Case Study.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JieHan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76581AA2-34A7-4AE8-897D-406E6D6F2FF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{93FD6818-9D12-4EAD-97F1-365D6C71E2B0}"/>
   </bookViews>
   <sheets>
     <sheet name=" system overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Buy" sheetId="2" r:id="rId2"/>
-    <sheet name="Sell" sheetId="3" r:id="rId3"/>
+    <sheet name="Buy_overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Sell_overview" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,29 +33,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -76,8 +95,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -88,10 +110,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3FC987"/>
+      <color rgb="FF2645E2"/>
       <color rgb="FFCFDC84"/>
       <color rgb="FF17DCF1"/>
       <color rgb="FF6E10F8"/>
-      <color rgb="FF3FC987"/>
       <color rgb="FFD4BAEC"/>
     </mruColors>
   </colors>
@@ -126,7 +149,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA8B2A7-BDB4-4402-ACF0-2B7131200B8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA8B2A7-BDB4-4402-ACF0-2B7131200B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,7 +220,7 @@
         <xdr:cNvPr id="2" name="Smiley Face 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B6C48B-01B1-484D-BF9C-DC568F4911A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B6C48B-01B1-484D-BF9C-DC568F4911A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -257,7 +280,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2282297-006A-4159-9BD4-FE694B8D5435}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2282297-006A-4159-9BD4-FE694B8D5435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,7 +355,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B441F1-352A-4924-9196-DA11FDCB4BD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B441F1-352A-4924-9196-DA11FDCB4BD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -408,7 +431,7 @@
         <xdr:cNvPr id="6" name="Smiley Face 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B1961B-BE95-4841-83F1-5C06A7922BCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B1961B-BE95-4841-83F1-5C06A7922BCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -468,7 +491,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A75F1FB-31BE-4C8F-B0DB-A24D9AFE3304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A75F1FB-31BE-4C8F-B0DB-A24D9AFE3304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,7 +567,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011163B4-AF96-4FA6-A2F6-6CA263E6FA50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011163B4-AF96-4FA6-A2F6-6CA263E6FA50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -600,7 +623,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF42C05-2D7C-4DA2-8FDC-A6CF198BEB79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF42C05-2D7C-4DA2-8FDC-A6CF198BEB79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -656,7 +679,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC85CB-4F13-43DD-B906-D65B759FB68E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC85CB-4F13-43DD-B906-D65B759FB68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -744,7 +767,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D802D6-A1D8-4A0F-B307-DF98D2BEECCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D802D6-A1D8-4A0F-B307-DF98D2BEECCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,7 +845,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ADD5EB-121D-4BC3-9381-3DD3E92C3CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ADD5EB-121D-4BC3-9381-3DD3E92C3CC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +923,7 @@
         <xdr:cNvPr id="19" name="Arrow: Right 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA54F504-3FE0-4341-BAB3-BF40ED12EC03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA54F504-3FE0-4341-BAB3-BF40ED12EC03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +992,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B0A2E5-85B9-4619-8C03-4A72BBE13337}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B0A2E5-85B9-4619-8C03-4A72BBE13337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1048,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA949EC-EFFE-4B01-A27A-CA4C909E7A5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA949EC-EFFE-4B01-A27A-CA4C909E7A5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1113,7 @@
         <xdr:cNvPr id="24" name="Graphic 23" descr="Internet">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC29876-5307-4C8E-9CC6-9F70F2ECBE79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC29876-5307-4C8E-9CC6-9F70F2ECBE79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,13 +1122,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1143,7 +1166,7 @@
         <xdr:cNvPr id="41" name="Arrow: Right 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C826F3-B8FF-4109-9E41-168054DBC95A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C826F3-B8FF-4109-9E41-168054DBC95A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1235,7 @@
         <xdr:cNvPr id="44" name="Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A75997-2BD5-4A34-8289-335DDAEFDCB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A75997-2BD5-4A34-8289-335DDAEFDCB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1344,7 @@
         <xdr:cNvPr id="47" name="Rectangle 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6C8A8-1956-4187-95A7-F51667722A7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6C8A8-1956-4187-95A7-F51667722A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1456,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8153876-7747-4F12-B7C8-6769758708AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8153876-7747-4F12-B7C8-6769758708AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1513,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EF03B3-3D33-4FEF-B46A-9968C9FF2584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EF03B3-3D33-4FEF-B46A-9968C9FF2584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1569,7 @@
         <xdr:cNvPr id="52" name="Cylinder 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB711B-D3DC-41EA-BAFB-7A6BBBC10B92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB711B-D3DC-41EA-BAFB-7A6BBBC10B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1658,7 @@
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEF0B1-95EB-4529-B829-DE3DDB21FC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AEF0B1-95EB-4529-B829-DE3DDB21FC58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1715,7 @@
         <xdr:cNvPr id="60" name="Rectangle 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AA00F-121F-48F1-AFC1-1B5E1E63040C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AA00F-121F-48F1-AFC1-1B5E1E63040C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1824,7 @@
         <xdr:cNvPr id="65" name="Rectangle 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE97012-6185-4669-85DB-142882170FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE97012-6185-4669-85DB-142882170FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1976,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF9606-4B63-4062-AFF6-A66D2D1A9A92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF9606-4B63-4062-AFF6-A66D2D1A9A92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2049,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6783C065-C60E-4EB1-9898-CDB1D5AE1005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6783C065-C60E-4EB1-9898-CDB1D5AE1005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2122,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658F0800-3A38-47BB-83BE-F5793677B5BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658F0800-3A38-47BB-83BE-F5793677B5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2195,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A1BB7F-C710-4539-98CE-C7F47CCF5CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A1BB7F-C710-4539-98CE-C7F47CCF5CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2268,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565E900F-E3A8-4774-B809-76E6F2211747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565E900F-E3A8-4774-B809-76E6F2211747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2341,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9186ECAE-9CC2-45F4-9AA1-8BD7AE077AB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9186ECAE-9CC2-45F4-9AA1-8BD7AE077AB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2396,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82316F87-9AF7-4FB6-A88D-96F43EB4892E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82316F87-9AF7-4FB6-A88D-96F43EB4892E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2474,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06974428-F9B7-474C-9C32-A3326B103A4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06974428-F9B7-474C-9C32-A3326B103A4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2547,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCC2A5-8E8B-4C47-969A-894AB6055231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCC2A5-8E8B-4C47-969A-894AB6055231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2602,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3798D-3B02-40DE-ACB0-30CDD79F7172}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC3798D-3B02-40DE-ACB0-30CDD79F7172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2675,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BCA2F2-C3DF-403B-89D8-F656DFDA914D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BCA2F2-C3DF-403B-89D8-F656DFDA914D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2732,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602EEFE-F3CE-4D98-873C-49C3F1CA3D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602EEFE-F3CE-4D98-873C-49C3F1CA3D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,16 +2798,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFFE68A-B97E-47B0-974A-16D347BB49A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFFE68A-B97E-47B0-974A-16D347BB49A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3092450" y="2260600"/>
-          <a:ext cx="1612900" cy="1047750"/>
+          <a:ext cx="1771650" cy="1289050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,7 +2885,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B46A47-618B-48A5-8AB7-6ADB6FE294D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B46A47-618B-48A5-8AB7-6ADB6FE294D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2940,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D3B61B-AD62-42F7-841B-447534AD3E0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D3B61B-AD62-42F7-841B-447534AD3E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,22 +3000,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rectangle 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB857263-C5F9-4723-87FE-4E4269FB5A4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB857263-C5F9-4723-87FE-4E4269FB5A4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,8 +3023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3194050" y="2933700"/>
-          <a:ext cx="1022350" cy="273050"/>
+          <a:off x="3187700" y="3213100"/>
+          <a:ext cx="1028700" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3053,23 +3076,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4CF3A6-4902-4D59-AA28-C61A707841F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4CF3A6-4902-4D59-AA28-C61A707841F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010150" y="2254250"/>
+          <a:off x="5473700" y="2247900"/>
           <a:ext cx="1663700" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3117,7 +3140,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Deatil Page</a:t>
+            <a:t>Detail Page</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3131,23 +3154,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986ACCEF-79DE-4A51-91C7-55029CFD4AC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986ACCEF-79DE-4A51-91C7-55029CFD4AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="2489200"/>
+          <a:off x="5549900" y="2482850"/>
           <a:ext cx="1022350" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3211,11 +3234,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3224,7 +3247,7 @@
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F320F6-53BF-402B-BA2F-6FF787F67345}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F320F6-53BF-402B-BA2F-6FF787F67345}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,8 +3255,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3994150" y="2692400"/>
-          <a:ext cx="965200" cy="3176"/>
+          <a:off x="3994150" y="2679700"/>
+          <a:ext cx="1409700" cy="15876"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3263,21 +3286,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Rectangle 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9046B090-E050-4EBA-967D-40CEE3F5FEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9046B090-E050-4EBA-967D-40CEE3F5FEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,8 +3308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3092450" y="3714750"/>
-          <a:ext cx="1612900" cy="1047750"/>
+          <a:off x="3092450" y="4362450"/>
+          <a:ext cx="1612900" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3343,7 +3366,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3352,7 +3375,7 @@
         <xdr:cNvPr id="43" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF5FD4-68BE-4ED8-A375-BED9F6939AD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF5FD4-68BE-4ED8-A375-BED9F6939AD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="768350" y="2952750"/>
-          <a:ext cx="882650" cy="285750"/>
+          <a:ext cx="596900" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,7 +3452,7 @@
         <xdr:cNvPr id="45" name="Connector: Elbow 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D13D1A-F1B3-4BE0-923D-26E45F7F1C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D13D1A-F1B3-4BE0-923D-26E45F7F1C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,22 +3495,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBB9BBD-13BD-4361-815E-0A2CA2E44717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBB9BBD-13BD-4361-815E-0A2CA2E44717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,8 +3520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="3206750"/>
-          <a:ext cx="3175" cy="495300"/>
+          <a:off x="3702050" y="3486150"/>
+          <a:ext cx="12700" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3527,22 +3550,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5ED76-3188-4741-9581-850BDDC04102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5ED76-3188-4741-9581-850BDDC04102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3175000" y="4133850"/>
+          <a:off x="3187700" y="4629150"/>
           <a:ext cx="488950" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3601,23 +3624,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63BEB37-2F36-4B3D-98A4-17D5B689D28C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63BEB37-2F36-4B3D-98A4-17D5B689D28C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4032250" y="4127500"/>
+          <a:off x="3867150" y="4635500"/>
           <a:ext cx="603250" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3677,22 +3700,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4282FA-FA5D-403A-846C-3BD9CAE88766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4282FA-FA5D-403A-846C-3BD9CAE88766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,8 +3725,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4038600" y="3213100"/>
-          <a:ext cx="295275" cy="914400"/>
+          <a:off x="4165600" y="3613150"/>
+          <a:ext cx="3175" cy="1022350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3731,23 +3754,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="Rectangle 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F94A28B-6FAD-4FDE-AEC0-5145FEBA2F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F94A28B-6FAD-4FDE-AEC0-5145FEBA2F87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5092700" y="2882900"/>
+          <a:off x="5556250" y="2876550"/>
           <a:ext cx="603250" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3806,14 +3829,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3822,7 +3845,7 @@
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CCAFA0-41FD-4A12-BE30-34EC84B03DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CCAFA0-41FD-4A12-BE30-34EC84B03DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,8 +3855,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4699000" y="3022600"/>
-          <a:ext cx="393700" cy="0"/>
+          <a:off x="4337050" y="3016250"/>
+          <a:ext cx="1219200" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3877,7 +3900,7 @@
         <xdr:cNvPr id="31" name="Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428FDBF5-38F3-47C5-AAFA-B7BD46273F8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428FDBF5-38F3-47C5-AAFA-B7BD46273F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +3970,7 @@
         <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F6BA3-7775-4D67-AFBD-844AFCCC57E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F6BA3-7775-4D67-AFBD-844AFCCC57E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4020,7 +4043,7 @@
         <xdr:cNvPr id="7" name="Connector: Elbow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D872E4-785E-4247-B510-A2664EAE5B7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D872E4-785E-4247-B510-A2664EAE5B7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4040,6 +4063,2762 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D133B70-B354-405B-BDDA-BFC0747B4073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="2876550"/>
+          <a:ext cx="800100" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="2645E2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Check Out </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CF3685-2C84-42DC-8D7F-0A59EBA8B9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3181350" y="3016250"/>
+          <a:ext cx="234950" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -97297"/>
+            <a:gd name="adj2" fmla="val 55288"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1555711-0BD9-4AB7-9910-66205A2FEB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4184650" y="2330450"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BB39B4-25F1-488D-84F0-39950F558BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="2870200"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2530B8-C983-4D25-BF21-EC97B74E7EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3206750" y="4978400"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E63450-D4CC-4A19-A06E-E0C5AE48D36C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1746250" y="2787650"/>
+          <a:ext cx="641350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3FC987"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Prchase History</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374BEEE1-C904-463B-89FF-56A3582F31DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="730250" y="4381500"/>
+          <a:ext cx="1733550" cy="1035050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3FC987"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Prchase History Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96671764-7E97-4BFC-B527-118CC63DB25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1739900" y="4679950"/>
+          <a:ext cx="603250" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="17DCF1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Connector: Elbow 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD59578B-A893-486A-897E-267AEF338F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2127250" y="3327400"/>
+          <a:ext cx="215900" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -105882"/>
+            <a:gd name="adj2" fmla="val 54681"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F140511F-684E-4625-80EF-E8EDF1281B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1746250" y="5067300"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69828FD1-DC4D-4D9A-A845-A0E6B1DFE217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2463800" y="4765674"/>
+          <a:ext cx="723900" cy="250825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Connector: Elbow 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D0918B-5302-406A-8606-E48BD9127E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="12700" y="3321050"/>
+          <a:ext cx="2514600" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9091"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Connector: Elbow 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343AE41E-882B-47DF-BCFC-0C7F3AA83459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2600325" y="4676775"/>
+          <a:ext cx="311150" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connector: Elbow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF617EAC-33F6-4404-932F-5E2CE6B85665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2314575" y="168275"/>
+          <a:ext cx="342900" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connector: Elbow 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840BF456-33EC-4B35-BA2F-70DEF9CE1AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4978400" y="1111250"/>
+          <a:ext cx="882650" cy="2635250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE10B92-B96A-4BAF-89C9-5A8C6F8B3196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="234950"/>
+          <a:ext cx="1771650" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Portal Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC05367A-1EA5-4992-B3CD-3006F580D192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="641350"/>
+          <a:ext cx="742950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF6056A-7F55-45AB-9AC9-5443C4E22CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="635000"/>
+          <a:ext cx="806450" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Signup</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C285F9EE-DF45-4456-8C99-6C5571633C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3054350" y="228600"/>
+          <a:ext cx="1657350" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Register Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D299C86-D680-4C7E-B147-02450477A12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="1250950"/>
+          <a:ext cx="1778000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A8770A-3773-476E-AE93-B0D68AEE7BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1092200" y="908050"/>
+          <a:ext cx="3175" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E7041E-4DA8-4010-8D78-58F4D0A96D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="2273300"/>
+          <a:ext cx="2101850" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Home Page</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078D048A-333E-466E-B400-9E615BBD3203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768350" y="1524000"/>
+          <a:ext cx="742950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76577149-D17B-4C4D-B90A-22F15853FA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1139825" y="1790700"/>
+          <a:ext cx="3175" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4C45C2-0DA3-4A87-BD80-7431203C15D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3130550" y="635000"/>
+          <a:ext cx="806450" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Register</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C07398-BC81-4CA8-A742-1307860D862B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768350" y="2946400"/>
+          <a:ext cx="717550" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E0C274-8051-4002-AA91-71138AB1B94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="2552700"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EA0EC3-CD5E-47B6-8E5C-08DF876DE024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="209550"/>
+          <a:ext cx="1657350" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CFDC84"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Register Sucess Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864EF28F-3AC9-4A29-84D1-A3E1AC8990E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="622300"/>
+          <a:ext cx="742950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Login</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454026</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C917FDFA-0D1D-4DE9-BEDC-4C735E7C8B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3730626" y="-371475"/>
+          <a:ext cx="657225" cy="3178175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86243B63-A209-4616-A452-0C63134D1FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="3556000"/>
+          <a:ext cx="1428750" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3FC987"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Item Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E6249C-E2B6-4DEB-A86D-3058B50431E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625600" y="2419350"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Update Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368A4A18-8942-4793-9741-7810A783DA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1631950" y="2794000"/>
+          <a:ext cx="1016000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>View Stock</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ABF591-5150-4C59-A0AD-02CA3788EA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="4127500"/>
+          <a:ext cx="596900" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Logout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD28EC5-7F9C-425C-9645-A43607A58086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="3841750"/>
+          <a:ext cx="482600" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Save</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930AAB07-CB06-4C09-B7E4-DB898001F637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2400300" y="762000"/>
+          <a:ext cx="660400" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Connector: Elbow 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52EA73B-4BBA-435E-91FB-97F5F120625D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="768350" y="3073400"/>
+          <a:ext cx="577850" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15095FB1-E2FB-483C-A06C-8F23A6D843D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="685800" y="612775"/>
+          <a:ext cx="749300" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED93E4A4-B6E3-45A0-89CE-4093DE96937C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="2692400"/>
+          <a:ext cx="317500" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connector: Elbow 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D377D62-9568-4CEB-A755-438DFDE59A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="2552700"/>
+          <a:ext cx="133350" cy="1454150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 271429"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6499496-5414-4242-AFA8-DCD28C346CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="2927350"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4104,7 +6883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4156,7 +6935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4350,21 +7129,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48E485D-B004-464D-B886-7A526B575EF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,21 +7150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A4FC75-BD76-4633-B747-068BF55D067C}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4400,21 +7175,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C651107D-76CD-4C1A-BCDB-10DD18CDB3EB}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>